--- a/README_parameters.xlsx
+++ b/README_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergurt/Desktop/Code_example_19-10-2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergurt/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD82AFD-CD39-6C4A-AA42-318FCF72FBB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DAD6206-DC91-3443-947F-94EE782B2257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1380" windowWidth="25380" windowHeight="14380" xr2:uid="{86EABACA-726C-5F43-852B-5E4A3D5F6ACF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14340" xr2:uid="{86EABACA-726C-5F43-852B-5E4A3D5F6ACF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>const int N_ITER_TOTAL</t>
   </si>
   <si>
-    <t>const int CNT_START_INTERACT</t>
-  </si>
-  <si>
     <t>const int FREQ_WRITE</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>const double D_BROWNIAN_SQRT</t>
   </si>
   <si>
-    <t xml:space="preserve">const double F_ENTROPIC </t>
-  </si>
-  <si>
     <t>const double K_TENSION</t>
   </si>
   <si>
@@ -396,24 +390,23 @@
     <t>spring constant between feet of binder</t>
   </si>
   <si>
-    <t>entropic force</t>
+    <t>a distance to trigger spring force calculation (can be set to zero)</t>
+  </si>
+  <si>
+    <t>an intermediate variable for calculating stochastic force</t>
+  </si>
+  <si>
+    <t>process id of a running simulation, to be included in the names of output files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,19 +454,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,30 +784,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646AE58C-F365-724E-B040-AF101E23A664}">
-  <dimension ref="B1:C69"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B46:B47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
@@ -819,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -827,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -835,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
@@ -843,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
@@ -851,17 +847,20 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
@@ -869,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
@@ -885,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
@@ -893,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
@@ -901,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
@@ -909,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
@@ -917,7 +916,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
@@ -925,20 +924,20 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
@@ -946,7 +945,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -954,25 +953,28 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
@@ -980,7 +982,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
@@ -988,7 +990,7 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
@@ -996,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
@@ -1004,7 +1006,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
@@ -1012,7 +1014,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
@@ -1020,7 +1022,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
@@ -1028,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
@@ -1036,20 +1038,20 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
@@ -1057,7 +1059,7 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
@@ -1065,237 +1067,227 @@
         <v>29</v>
       </c>
       <c r="C36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>31</v>
+      <c r="B40" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
+      <c r="B42" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
-        <v>34</v>
+      <c r="B43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
-        <v>36</v>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
-        <v>37</v>
+      <c r="B47" t="s">
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" t="s">
-        <v>114</v>
+      <c r="B48" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" t="s">
-        <v>113</v>
+      <c r="B51" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>64</v>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
-        <v>65</v>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" t="s">
-        <v>118</v>
+      <c r="B59" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>66</v>
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
